--- a/partial/sliding_window_results_window_9.xlsx
+++ b/partial/sliding_window_results_window_9.xlsx
@@ -468,13 +468,13 @@
         <v>29.81</v>
       </c>
       <c r="C2" t="n">
-        <v>30.38714239875284</v>
+        <v>29.9100170135498</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5771423987528443</v>
+        <v>0.1000170135498024</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3330933484381872</v>
+        <v>0.01000340299942136</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.92</v>
       </c>
       <c r="C3" t="n">
-        <v>30.20424264837479</v>
+        <v>29.88937187194824</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2842426483747857</v>
+        <v>-0.03062812805175952</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08079388315511209</v>
+        <v>0.0009380822279549783</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>29.98</v>
       </c>
       <c r="C4" t="n">
-        <v>29.60451508679434</v>
+        <v>29.96999931335449</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.375484913205657</v>
+        <v>-0.01000068664551179</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1409889200450598</v>
+        <v>0.0001000137333817179</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>46</v>
       </c>
       <c r="B5" t="n">
-        <v>30.04</v>
+        <v>30.03999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>29.90138387639368</v>
+        <v>30.16000175476074</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1386161236063188</v>
+        <v>0.1200017547607501</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01921442972364226</v>
+        <v>0.01440042114565922</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>45</v>
       </c>
       <c r="B6" t="n">
-        <v>30.21</v>
+        <v>30.21000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>29.52965659601929</v>
+        <v>30.22909355163574</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.6803434039807073</v>
+        <v>0.01909355163573423</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4628671473400559</v>
+        <v>0.0003645637140664493</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>30.22</v>
       </c>
       <c r="C7" t="n">
-        <v>29.92241711051456</v>
+        <v>30.33775901794434</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.2975828894854402</v>
+        <v>0.1177590179443371</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08855557611450372</v>
+        <v>0.0138671863072147</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>30.38</v>
       </c>
       <c r="C8" t="n">
-        <v>29.82957776103391</v>
+        <v>30.40864372253418</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.5504222389660889</v>
+        <v>0.02864372253418423</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3029646411484422</v>
+        <v>0.0008204628406153337</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>30.44</v>
       </c>
       <c r="C9" t="n">
-        <v>30.48748488097121</v>
+        <v>30.61941337585449</v>
       </c>
       <c r="D9" t="n">
-        <v>0.04748488097120784</v>
+        <v>0.1794133758544945</v>
       </c>
       <c r="E9" t="n">
-        <v>0.002254813920849777</v>
+        <v>0.0321891594355061</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>30.48</v>
       </c>
       <c r="C10" t="n">
-        <v>30.35523971682203</v>
+        <v>30.43139457702637</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1247602831779666</v>
+        <v>-0.04860542297363679</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01556512825864642</v>
+        <v>0.002362487142446139</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>30.69</v>
       </c>
       <c r="C11" t="n">
-        <v>30.55629286458905</v>
+        <v>30.40582847595215</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1337071354109547</v>
+        <v>-0.2841715240478493</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01787759805980338</v>
+        <v>0.08075345507967739</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.75</v>
       </c>
       <c r="C12" t="n">
-        <v>30.34749455427049</v>
+        <v>30.52097129821777</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.4025054457295099</v>
+        <v>-0.2290287017822266</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1620106338419114</v>
+        <v>0.05245414624005207</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.94</v>
       </c>
       <c r="C13" t="n">
-        <v>30.63918103055309</v>
+        <v>30.62080192565918</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.3008189694469117</v>
+        <v>-0.319198074340818</v>
       </c>
       <c r="E13" t="n">
-        <v>0.09049205237910198</v>
+        <v>0.1018874106628864</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>30.95</v>
       </c>
       <c r="C14" t="n">
-        <v>30.85205001054801</v>
+        <v>30.70599174499512</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.09794998945199396</v>
+        <v>-0.2440082550048857</v>
       </c>
       <c r="E14" t="n">
-        <v>0.009594200433645728</v>
+        <v>0.05954002851052931</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>31.02</v>
       </c>
       <c r="C15" t="n">
-        <v>31.41783529191696</v>
+        <v>31.09451866149902</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3978352919169588</v>
+        <v>0.07451866149902742</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1582729194946518</v>
+        <v>0.005553030911606631</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>31.12</v>
       </c>
       <c r="C16" t="n">
-        <v>31.73871019207804</v>
+        <v>31.2536449432373</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6187101920780371</v>
+        <v>0.1336449432373001</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3828023017812416</v>
+        <v>0.01786097085290118</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>31.28</v>
       </c>
       <c r="C17" t="n">
-        <v>31.81434325783658</v>
+        <v>31.33582878112793</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5343432578365821</v>
+        <v>0.05582878112792855</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2855227171954121</v>
+        <v>0.003116852802230151</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>31.38</v>
       </c>
       <c r="C18" t="n">
-        <v>31.51369094615249</v>
+        <v>31.1854305267334</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1336909461524947</v>
+        <v>-0.194569473266597</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01787326908314923</v>
+        <v>0.03785727992724101</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>31.58</v>
       </c>
       <c r="C19" t="n">
-        <v>31.87210189948917</v>
+        <v>31.38635063171387</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2921018994891682</v>
+        <v>-0.1936493682861311</v>
       </c>
       <c r="E19" t="n">
-        <v>0.08532351968518012</v>
+        <v>0.03750007783761764</v>
       </c>
     </row>
     <row r="20">
@@ -771,16 +771,16 @@
         <v>31</v>
       </c>
       <c r="B20" t="n">
-        <v>31.65</v>
+        <v>31.65000000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>31.81605668925805</v>
+        <v>31.94420433044434</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1660566892580491</v>
+        <v>0.2942043304443303</v>
       </c>
       <c r="E20" t="n">
-        <v>0.02757482404734427</v>
+        <v>0.08655618805219667</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>31.88</v>
       </c>
       <c r="C21" t="n">
-        <v>32.49591812876506</v>
+        <v>32.52571487426758</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6159181287650632</v>
+        <v>0.6457148742675827</v>
       </c>
       <c r="E21" t="n">
-        <v>0.379355141341457</v>
+        <v>0.4169476988504001</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>32.28</v>
       </c>
       <c r="C22" t="n">
-        <v>32.39772312690157</v>
+        <v>32.49223709106445</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1177231269015735</v>
+        <v>0.212237091064452</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01385873460748398</v>
+        <v>0.04504458282350048</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>32.45</v>
       </c>
       <c r="C23" t="n">
-        <v>32.47967215352129</v>
+        <v>32.56542587280273</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0296721535212825</v>
+        <v>0.1154258728027315</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0008804366945905572</v>
+        <v>0.01332313211227236</v>
       </c>
     </row>
     <row r="24">
@@ -839,16 +839,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="n">
-        <v>32.85</v>
+        <v>32.84999999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>32.70930963669593</v>
+        <v>32.8115119934082</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.140690363304067</v>
+        <v>-0.03848800659179119</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01979377832663037</v>
+        <v>0.001481326651409762</v>
       </c>
     </row>
     <row r="25">
@@ -856,16 +856,16 @@
         <v>26</v>
       </c>
       <c r="B25" t="n">
-        <v>32.9</v>
+        <v>32.90000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>32.84341623544406</v>
+        <v>32.99087142944336</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.05658376455593839</v>
+        <v>0.09087142944335369</v>
       </c>
       <c r="E25" t="n">
-        <v>0.00320172241132187</v>
+        <v>0.008257616689078408</v>
       </c>
     </row>
     <row r="26">
@@ -873,16 +873,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>33.1</v>
+        <v>33.09999999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>33.22115909197819</v>
+        <v>32.95927810668945</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1211590919781855</v>
+        <v>-0.1407218933105412</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01467952556897842</v>
+        <v>0.01980265125690334</v>
       </c>
     </row>
     <row r="27">
@@ -890,16 +890,16 @@
         <v>24</v>
       </c>
       <c r="B27" t="n">
-        <v>33.4</v>
+        <v>33.40000000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>33.7539685039599</v>
+        <v>33.53360366821289</v>
       </c>
       <c r="D27" t="n">
-        <v>0.353968503959905</v>
+        <v>0.1336036682128849</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1252937017956133</v>
+        <v>0.01784994015993864</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>33.7</v>
       </c>
       <c r="C28" t="n">
-        <v>33.95208900788641</v>
+        <v>33.62392044067383</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2520890078864042</v>
+        <v>-0.07607955932617472</v>
       </c>
       <c r="E28" t="n">
-        <v>0.06354886789715156</v>
+        <v>0.005788099347264939</v>
       </c>
     </row>
     <row r="29">
@@ -924,16 +924,16 @@
         <v>22</v>
       </c>
       <c r="B29" t="n">
-        <v>34.1</v>
+        <v>34.09999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>34.04613279726959</v>
+        <v>33.83574295043945</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.0538672027304159</v>
+        <v>-0.2642570495605412</v>
       </c>
       <c r="E29" t="n">
-        <v>0.002901675529999726</v>
+        <v>0.06983178824244232</v>
       </c>
     </row>
     <row r="30">
@@ -941,16 +941,16 @@
         <v>21</v>
       </c>
       <c r="B30" t="n">
-        <v>34.4</v>
+        <v>34.40000000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>34.35496298046779</v>
+        <v>34.44326400756836</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.0450370195322094</v>
+        <v>0.04326400756835369</v>
       </c>
       <c r="E30" t="n">
-        <v>0.002028333128344611</v>
+        <v>0.001871774350874565</v>
       </c>
     </row>
     <row r="31">
@@ -958,16 +958,16 @@
         <v>20</v>
       </c>
       <c r="B31" t="n">
-        <v>34.9</v>
+        <v>34.90000000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>34.68193311658447</v>
+        <v>35.08557510375977</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.2180668834155313</v>
+        <v>0.1855751037597599</v>
       </c>
       <c r="E31" t="n">
-        <v>0.04755316564256291</v>
+        <v>0.03443811913544566</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>35.3</v>
       </c>
       <c r="C32" t="n">
-        <v>35.42135877841788</v>
+        <v>35.61227798461914</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1213587784178856</v>
+        <v>0.3122779846191435</v>
       </c>
       <c r="E32" t="n">
-        <v>0.01472795309908145</v>
+        <v>0.097517539677794</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>35.7</v>
       </c>
       <c r="C33" t="n">
-        <v>35.84551657332369</v>
+        <v>35.89323043823242</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1455165733236825</v>
+        <v>0.193230438232419</v>
       </c>
       <c r="E33" t="n">
-        <v>0.02117507311186667</v>
+        <v>0.03733800225949271</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>36.3</v>
       </c>
       <c r="C34" t="n">
-        <v>36.0760419849652</v>
+        <v>36.06398391723633</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.2239580150347962</v>
+        <v>-0.236016082763669</v>
       </c>
       <c r="E34" t="n">
-        <v>0.05015719249832599</v>
+        <v>0.05570359132310707</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>36.8</v>
       </c>
       <c r="C35" t="n">
-        <v>37.00934890484561</v>
+        <v>36.57632064819336</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2093489048456121</v>
+        <v>-0.2236793518066378</v>
       </c>
       <c r="E35" t="n">
-        <v>0.04382696396005714</v>
+        <v>0.05003245242463764</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>37.3</v>
       </c>
       <c r="C36" t="n">
-        <v>37.06469109587862</v>
+        <v>37.20608139038086</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.2353089041213821</v>
+        <v>-0.09391860961913778</v>
       </c>
       <c r="E36" t="n">
-        <v>0.05537028035880577</v>
+        <v>0.008820705232792001</v>
       </c>
     </row>
     <row r="37">
@@ -1060,16 +1060,16 @@
         <v>14</v>
       </c>
       <c r="B37" t="n">
-        <v>37.9</v>
+        <v>37.90000000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>38.01732082355522</v>
+        <v>37.85781478881836</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1173208235552252</v>
+        <v>-0.04218521118164631</v>
       </c>
       <c r="E37" t="n">
-        <v>0.01376417563967629</v>
+        <v>0.001779592042440097</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>38.5</v>
       </c>
       <c r="C38" t="n">
-        <v>38.66120263671617</v>
+        <v>38.30781173706055</v>
       </c>
       <c r="D38" t="n">
-        <v>0.161202636716169</v>
+        <v>-0.1921882629394531</v>
       </c>
       <c r="E38" t="n">
-        <v>0.02598629008424515</v>
+        <v>0.03693632841168437</v>
       </c>
     </row>
     <row r="39">
@@ -1094,16 +1094,16 @@
         <v>12</v>
       </c>
       <c r="B39" t="n">
-        <v>38.9</v>
+        <v>38.90000000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>39.08689015532173</v>
+        <v>39.00927352905273</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1868901553217341</v>
+        <v>0.1092735290527287</v>
       </c>
       <c r="E39" t="n">
-        <v>0.03492793015618191</v>
+        <v>0.01194070415163754</v>
       </c>
     </row>
     <row r="40">
@@ -1111,16 +1111,16 @@
         <v>11</v>
       </c>
       <c r="B40" t="n">
-        <v>39.4</v>
+        <v>39.40000000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>39.51705279847814</v>
+        <v>39.57085037231445</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1170527984781415</v>
+        <v>0.1708503723144474</v>
       </c>
       <c r="E40" t="n">
-        <v>0.01370135763156441</v>
+        <v>0.02918984971998531</v>
       </c>
     </row>
     <row r="41">
@@ -1128,16 +1128,16 @@
         <v>10</v>
       </c>
       <c r="B41" t="n">
-        <v>39.9</v>
+        <v>39.90000000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>39.80047003346329</v>
+        <v>39.59535598754883</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.09952996653670709</v>
+        <v>-0.3046440124511776</v>
       </c>
       <c r="E41" t="n">
-        <v>0.009906214238798033</v>
+        <v>0.09280797432235323</v>
       </c>
     </row>
     <row r="42">
@@ -1145,16 +1145,16 @@
         <v>9</v>
       </c>
       <c r="B42" t="n">
-        <v>40.1</v>
+        <v>40.09999999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>39.94117075655549</v>
+        <v>40.05672073364258</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.1588292434445151</v>
+        <v>-0.04327926635741619</v>
       </c>
       <c r="E42" t="n">
-        <v>0.02522672857315704</v>
+        <v>0.001873094896436177</v>
       </c>
     </row>
     <row r="43">
@@ -1162,16 +1162,16 @@
         <v>8</v>
       </c>
       <c r="B43" t="n">
-        <v>40.6</v>
+        <v>40.59999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>40.0960036439964</v>
+        <v>40.49784469604492</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.5039963560035972</v>
+        <v>-0.1021553039550724</v>
       </c>
       <c r="E43" t="n">
-        <v>0.2540123268649047</v>
+        <v>0.01043570612615324</v>
       </c>
     </row>
     <row r="44">
@@ -1179,16 +1179,16 @@
         <v>7</v>
       </c>
       <c r="B44" t="n">
-        <v>40.9</v>
+        <v>40.90000000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>40.38686425707408</v>
+        <v>40.71113967895508</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.5131357429259182</v>
+        <v>-0.1888603210449276</v>
       </c>
       <c r="E44" t="n">
-        <v>0.263308290668134</v>
+        <v>0.03566822086519311</v>
       </c>
     </row>
     <row r="45">
@@ -1196,16 +1196,16 @@
         <v>6</v>
       </c>
       <c r="B45" t="n">
-        <v>41.2</v>
+        <v>41.20000000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>41.23857153692916</v>
+        <v>41.16640853881836</v>
       </c>
       <c r="D45" t="n">
-        <v>0.03857153692916171</v>
+        <v>-0.03359146118165057</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001487763461077686</v>
+        <v>0.001128386264318337</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>41.5</v>
       </c>
       <c r="C46" t="n">
-        <v>41.47088209601379</v>
+        <v>41.36802291870117</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.0291179039862115</v>
+        <v>-0.1319770812988281</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0008478523325502317</v>
+        <v>0.01741794998815749</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>41.8</v>
       </c>
       <c r="C47" t="n">
-        <v>42.09844203448182</v>
+        <v>42.05647659301758</v>
       </c>
       <c r="D47" t="n">
-        <v>0.2984420344818233</v>
+        <v>0.256476593017581</v>
       </c>
       <c r="E47" t="n">
-        <v>0.08906764794564979</v>
+        <v>0.06578024276590586</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>42.2</v>
       </c>
       <c r="C48" t="n">
-        <v>42.39337219403187</v>
+        <v>41.7586784362793</v>
       </c>
       <c r="D48" t="n">
-        <v>0.1933721940318662</v>
+        <v>-0.441321563720706</v>
       </c>
       <c r="E48" t="n">
-        <v>0.03739280542469772</v>
+        <v>0.1947647226048891</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>42.7</v>
       </c>
       <c r="C49" t="n">
-        <v>43.3717007085433</v>
+        <v>43.38093185424805</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6717007085432982</v>
+        <v>0.680931854248044</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4511818418575689</v>
+        <v>0.4636681901296795</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>43.7</v>
       </c>
       <c r="C50" t="n">
-        <v>43.9667627965911</v>
+        <v>44.19462203979492</v>
       </c>
       <c r="D50" t="n">
-        <v>0.2667627965910953</v>
+        <v>0.4946220397949261</v>
       </c>
       <c r="E50" t="n">
-        <v>0.07116238964510206</v>
+        <v>0.2446509622508935</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>44.2</v>
       </c>
       <c r="C51" t="n">
-        <v>43.48826428007315</v>
+        <v>43.60408782958984</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.7117357199268568</v>
+        <v>-0.5959121704101591</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5065677350198011</v>
+        <v>0.3551113148429465</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>0.9776296810985414</v>
+        <v>0.06434516906735155</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>5.340535819661321</v>
+        <v>3.005327480343232</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>0.1068107163932264</v>
+        <v>0.06010654960686464</v>
       </c>
     </row>
   </sheetData>

--- a/partial/sliding_window_results_window_9.xlsx
+++ b/partial/sliding_window_results_window_9.xlsx
@@ -468,13 +468,13 @@
         <v>29.81</v>
       </c>
       <c r="C2" t="n">
-        <v>29.9100170135498</v>
+        <v>29.87228202819824</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1000170135498024</v>
+        <v>0.06228202819823991</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01000340299942136</v>
+        <v>0.003879051036486352</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.92</v>
       </c>
       <c r="C3" t="n">
-        <v>29.88937187194824</v>
+        <v>29.8362865447998</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.03062812805175952</v>
+        <v>-0.08371345520019702</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0009380822279549783</v>
+        <v>0.007007942581555393</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>29.98</v>
       </c>
       <c r="C4" t="n">
-        <v>29.96999931335449</v>
+        <v>29.88339805603027</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.01000068664551179</v>
+        <v>-0.09660194396973054</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0001000137333817179</v>
+        <v>0.009331935578730959</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>30.03999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>30.16000175476074</v>
+        <v>30.11999320983887</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1200017547607501</v>
+        <v>0.07999320983887515</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01440042114565922</v>
+        <v>0.006398913620326311</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>30.21000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>30.22909355163574</v>
+        <v>30.15447807312012</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01909355163573423</v>
+        <v>-0.05552192687989077</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0003645637140664493</v>
+        <v>0.003082684364455937</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>30.22</v>
       </c>
       <c r="C7" t="n">
-        <v>30.33775901794434</v>
+        <v>30.29599571228027</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1177590179443371</v>
+        <v>0.07599571228027457</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0138671863072147</v>
+        <v>0.005775348284986275</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>30.38</v>
       </c>
       <c r="C8" t="n">
-        <v>30.40864372253418</v>
+        <v>30.3262996673584</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02864372253418423</v>
+        <v>-0.05370033264159702</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0008204628406153337</v>
+        <v>0.00288372572581817</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>30.44</v>
       </c>
       <c r="C9" t="n">
-        <v>30.61941337585449</v>
+        <v>30.60208702087402</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1794133758544945</v>
+        <v>0.1620870208740257</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0321891594355061</v>
+        <v>0.02627220233581685</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>30.48</v>
       </c>
       <c r="C10" t="n">
-        <v>30.43139457702637</v>
+        <v>30.42975425720215</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.04860542297363679</v>
+        <v>-0.05024574279785554</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002362487142446139</v>
+        <v>0.002524634669308252</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>30.69</v>
       </c>
       <c r="C11" t="n">
-        <v>30.40582847595215</v>
+        <v>30.41475486755371</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.2841715240478493</v>
+        <v>-0.2752451324462868</v>
       </c>
       <c r="E11" t="n">
-        <v>0.08075345507967739</v>
+        <v>0.07575988293537396</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.75</v>
       </c>
       <c r="C12" t="n">
-        <v>30.52097129821777</v>
+        <v>30.46646690368652</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.2290287017822266</v>
+        <v>-0.2835330963134766</v>
       </c>
       <c r="E12" t="n">
-        <v>0.05245414624005207</v>
+        <v>0.08039101670510718</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.94</v>
       </c>
       <c r="C13" t="n">
-        <v>30.62080192565918</v>
+        <v>30.64535331726074</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.319198074340818</v>
+        <v>-0.2946466827392555</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1018874106628864</v>
+        <v>0.0868166676492475</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>30.95</v>
       </c>
       <c r="C14" t="n">
-        <v>30.70599174499512</v>
+        <v>30.74081993103027</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.2440082550048857</v>
+        <v>-0.2091800689697294</v>
       </c>
       <c r="E14" t="n">
-        <v>0.05954002851052931</v>
+        <v>0.04375630125418075</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>31.02</v>
       </c>
       <c r="C15" t="n">
-        <v>31.09451866149902</v>
+        <v>31.20608329772949</v>
       </c>
       <c r="D15" t="n">
-        <v>0.07451866149902742</v>
+        <v>0.1860832977294962</v>
       </c>
       <c r="E15" t="n">
-        <v>0.005553030911606631</v>
+        <v>0.03462699369388431</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>31.12</v>
       </c>
       <c r="C16" t="n">
-        <v>31.2536449432373</v>
+        <v>31.37253379821777</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1336449432373001</v>
+        <v>0.2525337982177689</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01786097085290118</v>
+        <v>0.06377331924229282</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>31.28</v>
       </c>
       <c r="C17" t="n">
-        <v>31.33582878112793</v>
+        <v>31.46288108825684</v>
       </c>
       <c r="D17" t="n">
-        <v>0.05582878112792855</v>
+        <v>0.1828810882568348</v>
       </c>
       <c r="E17" t="n">
-        <v>0.003116852802230151</v>
+        <v>0.0334454924420042</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>31.38</v>
       </c>
       <c r="C18" t="n">
-        <v>31.1854305267334</v>
+        <v>31.18894004821777</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.194569473266597</v>
+        <v>-0.191059951782222</v>
       </c>
       <c r="E18" t="n">
-        <v>0.03785727992724101</v>
+        <v>0.036503905175025</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>31.58</v>
       </c>
       <c r="C19" t="n">
-        <v>31.38635063171387</v>
+        <v>31.39605522155762</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1936493682861311</v>
+        <v>-0.1839447784423811</v>
       </c>
       <c r="E19" t="n">
-        <v>0.03750007783761764</v>
+        <v>0.03383568151621667</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>31.65000000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>31.94420433044434</v>
+        <v>31.99909019470215</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2942043304443303</v>
+        <v>0.3490901947021428</v>
       </c>
       <c r="E20" t="n">
-        <v>0.08655618805219667</v>
+        <v>0.1218639640371799</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>31.88</v>
       </c>
       <c r="C21" t="n">
-        <v>32.52571487426758</v>
+        <v>32.61288070678711</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6457148742675827</v>
+        <v>0.7328807067871139</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4169476988504001</v>
+        <v>0.5371141303807796</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>32.28</v>
       </c>
       <c r="C22" t="n">
-        <v>32.49223709106445</v>
+        <v>32.48990249633789</v>
       </c>
       <c r="D22" t="n">
-        <v>0.212237091064452</v>
+        <v>0.2099024963378895</v>
       </c>
       <c r="E22" t="n">
-        <v>0.04504458282350048</v>
+        <v>0.04405905796887771</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>32.45</v>
       </c>
       <c r="C23" t="n">
-        <v>32.56542587280273</v>
+        <v>32.58013534545898</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1154258728027315</v>
+        <v>0.1301353454589815</v>
       </c>
       <c r="E23" t="n">
-        <v>0.01332313211227236</v>
+        <v>0.01693520813772846</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>32.84999999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>32.8115119934082</v>
+        <v>32.83298110961914</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.03848800659179119</v>
+        <v>-0.01701889038085369</v>
       </c>
       <c r="E24" t="n">
-        <v>0.001481326651409762</v>
+        <v>0.0002896426297955143</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>32.90000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>32.99087142944336</v>
+        <v>33.00558853149414</v>
       </c>
       <c r="D25" t="n">
-        <v>0.09087142944335369</v>
+        <v>0.1055885314941349</v>
       </c>
       <c r="E25" t="n">
-        <v>0.008257616689078408</v>
+        <v>0.01114893798308793</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>33.09999999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>32.95927810668945</v>
+        <v>32.82542037963867</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.1407218933105412</v>
+        <v>-0.2745796203613224</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01980265125690334</v>
+        <v>0.07539396791776795</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>33.40000000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>33.53360366821289</v>
+        <v>33.48661422729492</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1336036682128849</v>
+        <v>0.08661422729491619</v>
       </c>
       <c r="E27" t="n">
-        <v>0.01784994015993864</v>
+        <v>0.007502024369895405</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>33.7</v>
       </c>
       <c r="C28" t="n">
-        <v>33.62392044067383</v>
+        <v>33.56669235229492</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.07607955932617472</v>
+        <v>-0.133307647705081</v>
       </c>
       <c r="E28" t="n">
-        <v>0.005788099347264939</v>
+        <v>0.01777092893666198</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>34.09999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>33.83574295043945</v>
+        <v>33.80671310424805</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.2642570495605412</v>
+        <v>-0.2932868957519474</v>
       </c>
       <c r="E29" t="n">
-        <v>0.06983178824244232</v>
+        <v>0.08601720321981368</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>34.40000000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>34.44326400756836</v>
+        <v>34.42673873901367</v>
       </c>
       <c r="D30" t="n">
-        <v>0.04326400756835369</v>
+        <v>0.02673873901366619</v>
       </c>
       <c r="E30" t="n">
-        <v>0.001871774350874565</v>
+        <v>0.0007149601640409544</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>34.90000000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>35.08557510375977</v>
+        <v>35.1187858581543</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1855751037597599</v>
+        <v>0.2187858581542912</v>
       </c>
       <c r="E31" t="n">
-        <v>0.03443811913544566</v>
+        <v>0.04786725172830963</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>35.3</v>
       </c>
       <c r="C32" t="n">
-        <v>35.61227798461914</v>
+        <v>35.6403694152832</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3122779846191435</v>
+        <v>0.340369415283206</v>
       </c>
       <c r="E32" t="n">
-        <v>0.097517539677794</v>
+        <v>0.1158513388602315</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>35.7</v>
       </c>
       <c r="C33" t="n">
-        <v>35.89323043823242</v>
+        <v>35.93871688842773</v>
       </c>
       <c r="D33" t="n">
-        <v>0.193230438232419</v>
+        <v>0.2387168884277315</v>
       </c>
       <c r="E33" t="n">
-        <v>0.03733800225949271</v>
+        <v>0.05698575282061803</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>36.3</v>
       </c>
       <c r="C34" t="n">
-        <v>36.06398391723633</v>
+        <v>36.06504440307617</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.236016082763669</v>
+        <v>-0.2349555969238253</v>
       </c>
       <c r="E34" t="n">
-        <v>0.05570359132310707</v>
+        <v>0.05520413252583106</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>36.8</v>
       </c>
       <c r="C35" t="n">
-        <v>36.57632064819336</v>
+        <v>36.58909225463867</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.2236793518066378</v>
+        <v>-0.2109077453613253</v>
       </c>
       <c r="E35" t="n">
-        <v>0.05003245242463764</v>
+        <v>0.04448207705339763</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>37.3</v>
       </c>
       <c r="C36" t="n">
-        <v>37.20608139038086</v>
+        <v>37.25984573364258</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.09391860961913778</v>
+        <v>-0.04015426635741903</v>
       </c>
       <c r="E36" t="n">
-        <v>0.008820705232792001</v>
+        <v>0.001612365106702554</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>37.90000000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>37.85781478881836</v>
+        <v>37.93800735473633</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.04218521118164631</v>
+        <v>0.03800735473632244</v>
       </c>
       <c r="E37" t="n">
-        <v>0.001779592042440097</v>
+        <v>0.001444559014052652</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>38.5</v>
       </c>
       <c r="C38" t="n">
-        <v>38.30781173706055</v>
+        <v>38.40301895141602</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.1921882629394531</v>
+        <v>-0.09698104858398438</v>
       </c>
       <c r="E38" t="n">
-        <v>0.03693632841168437</v>
+        <v>0.009405323784449138</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>38.90000000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>39.00927352905273</v>
+        <v>39.09297561645508</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1092735290527287</v>
+        <v>0.1929756164550724</v>
       </c>
       <c r="E39" t="n">
-        <v>0.01194070415163754</v>
+        <v>0.03723958854621522</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>39.40000000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>39.57085037231445</v>
+        <v>39.60136032104492</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1708503723144474</v>
+        <v>0.2013603210449162</v>
       </c>
       <c r="E40" t="n">
-        <v>0.02918984971998531</v>
+        <v>0.04054597889131172</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>39.90000000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>39.59535598754883</v>
+        <v>39.72297286987305</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.3046440124511776</v>
+        <v>-0.1770271301269588</v>
       </c>
       <c r="E41" t="n">
-        <v>0.09280797432235323</v>
+        <v>0.03133860480098721</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>40.09999999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>40.05672073364258</v>
+        <v>39.9340705871582</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.04327926635741619</v>
+        <v>-0.1659294128417912</v>
       </c>
       <c r="E42" t="n">
-        <v>0.001873094896436177</v>
+        <v>0.02753257004602158</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>40.59999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>40.49784469604492</v>
+        <v>40.3491325378418</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.1021553039550724</v>
+        <v>-0.2508674621581974</v>
       </c>
       <c r="E43" t="n">
-        <v>0.01043570612615324</v>
+        <v>0.06293448356969462</v>
       </c>
     </row>
     <row r="44">
@@ -1182,13 +1182,13 @@
         <v>40.90000000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>40.71113967895508</v>
+        <v>40.52922439575195</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.1888603210449276</v>
+        <v>-0.3707756042480526</v>
       </c>
       <c r="E44" t="n">
-        <v>0.03566822086519311</v>
+        <v>0.1374745487055085</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>41.20000000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>41.16640853881836</v>
+        <v>41.13470840454102</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.03359146118165057</v>
+        <v>-0.06529159545899432</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001128386264318337</v>
+        <v>0.004262992437580968</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>41.5</v>
       </c>
       <c r="C46" t="n">
-        <v>41.36802291870117</v>
+        <v>41.20147323608398</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.1319770812988281</v>
+        <v>-0.2985267639160156</v>
       </c>
       <c r="E46" t="n">
-        <v>0.01741794998815749</v>
+        <v>0.08911822877416853</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>41.8</v>
       </c>
       <c r="C47" t="n">
-        <v>42.05647659301758</v>
+        <v>41.73519897460938</v>
       </c>
       <c r="D47" t="n">
-        <v>0.256476593017581</v>
+        <v>-0.06480102539062216</v>
       </c>
       <c r="E47" t="n">
-        <v>0.06578024276590586</v>
+        <v>0.004199172891676058</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>42.2</v>
       </c>
       <c r="C48" t="n">
-        <v>41.7586784362793</v>
+        <v>41.73851013183594</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.441321563720706</v>
+        <v>-0.4614898681640653</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1947647226048891</v>
+        <v>0.2129728984180864</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>42.7</v>
       </c>
       <c r="C49" t="n">
-        <v>43.38093185424805</v>
+        <v>43.59564208984375</v>
       </c>
       <c r="D49" t="n">
-        <v>0.680931854248044</v>
+        <v>0.8956420898437472</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4636681901296795</v>
+        <v>0.8021747530996749</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>43.7</v>
       </c>
       <c r="C50" t="n">
-        <v>44.19462203979492</v>
+        <v>44.25690841674805</v>
       </c>
       <c r="D50" t="n">
-        <v>0.4946220397949261</v>
+        <v>0.5569084167480511</v>
       </c>
       <c r="E50" t="n">
-        <v>0.2446509622508935</v>
+        <v>0.310146984644821</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>44.2</v>
       </c>
       <c r="C51" t="n">
-        <v>43.60408782958984</v>
+        <v>43.73590469360352</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.5959121704101591</v>
+        <v>-0.4640953063964872</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3551113148429465</v>
+        <v>0.2153844534192494</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>0.06434516906735155</v>
+        <v>-0.0718166351318672</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>3.005327480343232</v>
+        <v>3.783053783695034</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>0.06010654960686464</v>
+        <v>0.07566107567390069</v>
       </c>
     </row>
   </sheetData>

--- a/partial/sliding_window_results_window_9.xlsx
+++ b/partial/sliding_window_results_window_9.xlsx
@@ -468,13 +468,13 @@
         <v>29.81</v>
       </c>
       <c r="C2" t="n">
-        <v>30.38714239875284</v>
+        <v>30.16580649882934</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5771423987528443</v>
+        <v>0.3558064988293452</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3330933484381872</v>
+        <v>0.1265982646091968</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.92</v>
       </c>
       <c r="C3" t="n">
-        <v>30.20424264837479</v>
+        <v>29.91327755397509</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2842426483747857</v>
+        <v>-0.006722446024916451</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08079388315511209</v>
+        <v>4.519128055791499e-05</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>29.98</v>
       </c>
       <c r="C4" t="n">
-        <v>29.60451508679434</v>
+        <v>29.92425137224613</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.375484913205657</v>
+        <v>-0.05574862775387501</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1409889200450598</v>
+        <v>0.003107909496440123</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>30.04</v>
       </c>
       <c r="C5" t="n">
-        <v>29.90138387639368</v>
+        <v>29.97212626215743</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1386161236063188</v>
+        <v>-0.06787373784256445</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01921442972364226</v>
+        <v>0.004606844288721166</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>30.21</v>
       </c>
       <c r="C6" t="n">
-        <v>29.52965659601929</v>
+        <v>30.00820204159942</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.6803434039807073</v>
+        <v>-0.2017979584005793</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4628671473400559</v>
+        <v>0.04072241601464195</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>30.22</v>
       </c>
       <c r="C7" t="n">
-        <v>29.92241711051456</v>
+        <v>30.14504543960305</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.2975828894854402</v>
+        <v>-0.0749545603969537</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08855557611450372</v>
+        <v>0.005618186124300579</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>30.38</v>
       </c>
       <c r="C8" t="n">
-        <v>29.82957776103391</v>
+        <v>30.20597661290189</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.5504222389660889</v>
+        <v>-0.1740233870981065</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3029646411484422</v>
+        <v>0.03028413925709742</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>30.44</v>
       </c>
       <c r="C9" t="n">
-        <v>30.48748488097121</v>
+        <v>30.49339099702649</v>
       </c>
       <c r="D9" t="n">
-        <v>0.04748488097120784</v>
+        <v>0.05339099702649008</v>
       </c>
       <c r="E9" t="n">
-        <v>0.002254813920849777</v>
+        <v>0.002850598563482673</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>30.48</v>
       </c>
       <c r="C10" t="n">
-        <v>30.35523971682203</v>
+        <v>30.50756586496083</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1247602831779666</v>
+        <v>0.02756586496083102</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01556512825864642</v>
+        <v>0.0007598769110387715</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>30.69</v>
       </c>
       <c r="C11" t="n">
-        <v>30.55629286458905</v>
+        <v>30.54467052631041</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1337071354109547</v>
+        <v>-0.1453294736895892</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01787759805980338</v>
+        <v>0.02112065592289299</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.75</v>
       </c>
       <c r="C12" t="n">
-        <v>30.34749455427049</v>
+        <v>30.73448260021426</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.4025054457295099</v>
+        <v>-0.01551739978573963</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1620106338419114</v>
+        <v>0.0002407896961104722</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.94</v>
       </c>
       <c r="C13" t="n">
-        <v>30.63918103055309</v>
+        <v>30.86336916496587</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.3008189694469117</v>
+        <v>-0.07663083503413404</v>
       </c>
       <c r="E13" t="n">
-        <v>0.09049205237910198</v>
+        <v>0.005872284878028665</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>30.95</v>
       </c>
       <c r="C14" t="n">
-        <v>30.85205001054801</v>
+        <v>31.06634062460518</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.09794998945199396</v>
+        <v>0.1163406246051828</v>
       </c>
       <c r="E14" t="n">
-        <v>0.009594200433645728</v>
+        <v>0.01353514093352406</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>31.02</v>
       </c>
       <c r="C15" t="n">
-        <v>31.41783529191696</v>
+        <v>31.23863354218343</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3978352919169588</v>
+        <v>0.2186335421834329</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1582729194946518</v>
+        <v>0.04780062576767493</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>31.12</v>
       </c>
       <c r="C16" t="n">
-        <v>31.73871019207804</v>
+        <v>31.30623121835359</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6187101920780371</v>
+        <v>0.186231218353587</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3828023017812416</v>
+        <v>0.03468206668946141</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>31.28</v>
       </c>
       <c r="C17" t="n">
-        <v>31.81434325783658</v>
+        <v>31.14093985533413</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5343432578365821</v>
+        <v>-0.1390601446658728</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2855227171954121</v>
+        <v>0.01933772383449347</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>31.38</v>
       </c>
       <c r="C18" t="n">
-        <v>31.51369094615249</v>
+        <v>30.91667236706866</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1336909461524947</v>
+        <v>-0.4633276329313354</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01787326908314923</v>
+        <v>0.2146724954377543</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>31.58</v>
       </c>
       <c r="C19" t="n">
-        <v>31.87210189948917</v>
+        <v>31.11689710311405</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2921018994891682</v>
+        <v>-0.4631028968859496</v>
       </c>
       <c r="E19" t="n">
-        <v>0.08532351968518012</v>
+        <v>0.2144642931041585</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>31.65</v>
       </c>
       <c r="C20" t="n">
-        <v>31.81605668925805</v>
+        <v>31.68030221163314</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1660566892580491</v>
+        <v>0.0303022116331455</v>
       </c>
       <c r="E20" t="n">
-        <v>0.02757482404734427</v>
+        <v>0.0009182240298599387</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>31.88</v>
       </c>
       <c r="C21" t="n">
-        <v>32.49591812876506</v>
+        <v>32.55461467098568</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6159181287650632</v>
+        <v>0.6746146709856795</v>
       </c>
       <c r="E21" t="n">
-        <v>0.379355141341457</v>
+        <v>0.4551049543091166</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>32.28</v>
       </c>
       <c r="C22" t="n">
-        <v>32.39772312690157</v>
+        <v>32.5785735425166</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1177231269015735</v>
+        <v>0.2985735425165998</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01385873460748398</v>
+        <v>0.08914616029091185</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>32.45</v>
       </c>
       <c r="C23" t="n">
-        <v>32.47967215352129</v>
+        <v>32.77063300299165</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0296721535212825</v>
+        <v>0.3206330029916487</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0008804366945905572</v>
+        <v>0.1028055226074426</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>32.85</v>
       </c>
       <c r="C24" t="n">
-        <v>32.70930963669593</v>
+        <v>32.97614095206262</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.140690363304067</v>
+        <v>0.1261409520626202</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01979377832663037</v>
+        <v>0.01591153978726425</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>32.9</v>
       </c>
       <c r="C25" t="n">
-        <v>32.84341623544406</v>
+        <v>33.03574193207213</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.05658376455593839</v>
+        <v>0.1357419320721291</v>
       </c>
       <c r="E25" t="n">
-        <v>0.00320172241132187</v>
+        <v>0.01842587212267452</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>33.1</v>
       </c>
       <c r="C26" t="n">
-        <v>33.22115909197819</v>
+        <v>33.25553034813504</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1211590919781855</v>
+        <v>0.1555303481350379</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01467952556897842</v>
+        <v>0.02418968919100607</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>33.4</v>
       </c>
       <c r="C27" t="n">
-        <v>33.7539685039599</v>
+        <v>33.5578811770355</v>
       </c>
       <c r="D27" t="n">
-        <v>0.353968503959905</v>
+        <v>0.157881177035506</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1252937017956133</v>
+        <v>0.02492646606211678</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>33.7</v>
       </c>
       <c r="C28" t="n">
-        <v>33.95208900788641</v>
+        <v>33.65613047871585</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2520890078864042</v>
+        <v>-0.04386952128415089</v>
       </c>
       <c r="E28" t="n">
-        <v>0.06354886789715156</v>
+        <v>0.001924534897700568</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>34.1</v>
       </c>
       <c r="C29" t="n">
-        <v>34.04613279726959</v>
+        <v>33.75997469900986</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.0538672027304159</v>
+        <v>-0.3400253009901419</v>
       </c>
       <c r="E29" t="n">
-        <v>0.002901675529999726</v>
+        <v>0.1156172053134366</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>34.4</v>
       </c>
       <c r="C30" t="n">
-        <v>34.35496298046779</v>
+        <v>34.34806229484705</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.0450370195322094</v>
+        <v>-0.05193770515295171</v>
       </c>
       <c r="E30" t="n">
-        <v>0.002028333128344611</v>
+        <v>0.002697525216554946</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>34.9</v>
       </c>
       <c r="C31" t="n">
-        <v>34.68193311658447</v>
+        <v>34.63708486459595</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.2180668834155313</v>
+        <v>-0.2629151354040502</v>
       </c>
       <c r="E31" t="n">
-        <v>0.04755316564256291</v>
+        <v>0.06912436842453006</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>35.3</v>
       </c>
       <c r="C32" t="n">
-        <v>35.42135877841788</v>
+        <v>35.70270976732756</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1213587784178856</v>
+        <v>0.4027097673275648</v>
       </c>
       <c r="E32" t="n">
-        <v>0.01472795309908145</v>
+        <v>0.1621751567010214</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>35.7</v>
       </c>
       <c r="C33" t="n">
-        <v>35.84551657332369</v>
+        <v>35.96025172326057</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1455165733236825</v>
+        <v>0.2602517232605663</v>
       </c>
       <c r="E33" t="n">
-        <v>0.02117507311186667</v>
+        <v>0.0677309594600944</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>36.3</v>
       </c>
       <c r="C34" t="n">
-        <v>36.0760419849652</v>
+        <v>36.3612699998228</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.2239580150347962</v>
+        <v>0.06126999982279813</v>
       </c>
       <c r="E34" t="n">
-        <v>0.05015719249832599</v>
+        <v>0.003754012878285683</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>36.8</v>
       </c>
       <c r="C35" t="n">
-        <v>37.00934890484561</v>
+        <v>36.87154410593212</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2093489048456121</v>
+        <v>0.07154410593212646</v>
       </c>
       <c r="E35" t="n">
-        <v>0.04382696396005714</v>
+        <v>0.005118559093627332</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>37.3</v>
       </c>
       <c r="C36" t="n">
-        <v>37.06469109587862</v>
+        <v>37.02772238973446</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.2353089041213821</v>
+        <v>-0.2722776102655402</v>
       </c>
       <c r="E36" t="n">
-        <v>0.05537028035880577</v>
+        <v>0.0741350970519134</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>37.9</v>
       </c>
       <c r="C37" t="n">
-        <v>38.01732082355522</v>
+        <v>37.84576247163672</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1173208235552252</v>
+        <v>-0.05423752836328077</v>
       </c>
       <c r="E37" t="n">
-        <v>0.01376417563967629</v>
+        <v>0.002941709482957686</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>38.5</v>
       </c>
       <c r="C38" t="n">
-        <v>38.66120263671617</v>
+        <v>38.55465602347439</v>
       </c>
       <c r="D38" t="n">
-        <v>0.161202636716169</v>
+        <v>0.05465602347438647</v>
       </c>
       <c r="E38" t="n">
-        <v>0.02598629008424515</v>
+        <v>0.002987280902032685</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>38.9</v>
       </c>
       <c r="C39" t="n">
-        <v>39.08689015532173</v>
+        <v>39.13423377791571</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1868901553217341</v>
+        <v>0.234233777915712</v>
       </c>
       <c r="E39" t="n">
-        <v>0.03492793015618191</v>
+        <v>0.05486546271666708</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>39.4</v>
       </c>
       <c r="C40" t="n">
-        <v>39.51705279847814</v>
+        <v>39.44887619032057</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1170527984781415</v>
+        <v>0.04887619032056989</v>
       </c>
       <c r="E40" t="n">
-        <v>0.01370135763156441</v>
+        <v>0.00238888198025257</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>39.9</v>
       </c>
       <c r="C41" t="n">
-        <v>39.80047003346329</v>
+        <v>39.72291496082726</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.09952996653670709</v>
+        <v>-0.1770850391727379</v>
       </c>
       <c r="E41" t="n">
-        <v>0.009906214238798033</v>
+        <v>0.03135911109881011</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>40.1</v>
       </c>
       <c r="C42" t="n">
-        <v>39.94117075655549</v>
+        <v>39.76860165895368</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.1588292434445151</v>
+        <v>-0.3313983410463237</v>
       </c>
       <c r="E42" t="n">
-        <v>0.02522672857315704</v>
+        <v>0.1098248604482555</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>40.6</v>
       </c>
       <c r="C43" t="n">
-        <v>40.0960036439964</v>
+        <v>39.90242503756722</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.5039963560035972</v>
+        <v>-0.6975749624327818</v>
       </c>
       <c r="E43" t="n">
-        <v>0.2540123268649047</v>
+        <v>0.486610828213097</v>
       </c>
     </row>
     <row r="44">
@@ -1182,13 +1182,13 @@
         <v>40.9</v>
       </c>
       <c r="C44" t="n">
-        <v>40.38686425707408</v>
+        <v>40.19112861176873</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.5131357429259182</v>
+        <v>-0.7088713882312732</v>
       </c>
       <c r="E44" t="n">
-        <v>0.263308290668134</v>
+        <v>0.5024986450529324</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>41.2</v>
       </c>
       <c r="C45" t="n">
-        <v>41.23857153692916</v>
+        <v>41.19744794723858</v>
       </c>
       <c r="D45" t="n">
-        <v>0.03857153692916171</v>
+        <v>-0.00255205276142334</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001487763461077686</v>
+        <v>6.512973297088496e-06</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>41.5</v>
       </c>
       <c r="C46" t="n">
-        <v>41.47088209601379</v>
+        <v>41.2758958709417</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.0291179039862115</v>
+        <v>-0.224104129058297</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0008478523325502317</v>
+        <v>0.05022266066097784</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>41.8</v>
       </c>
       <c r="C47" t="n">
-        <v>42.09844203448182</v>
+        <v>41.71022517673048</v>
       </c>
       <c r="D47" t="n">
-        <v>0.2984420344818233</v>
+        <v>-0.08977482326951503</v>
       </c>
       <c r="E47" t="n">
-        <v>0.08906764794564979</v>
+        <v>0.008059518893072656</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>42.2</v>
       </c>
       <c r="C48" t="n">
-        <v>42.39337219403187</v>
+        <v>42.38125921823084</v>
       </c>
       <c r="D48" t="n">
-        <v>0.1933721940318662</v>
+        <v>0.1812592182308421</v>
       </c>
       <c r="E48" t="n">
-        <v>0.03739280542469772</v>
+        <v>0.03285490419365605</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>42.7</v>
       </c>
       <c r="C49" t="n">
-        <v>43.3717007085433</v>
+        <v>43.50843356850199</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6717007085432982</v>
+        <v>0.8084335685019894</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4511818418575689</v>
+        <v>0.6535648346808609</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>43.7</v>
       </c>
       <c r="C50" t="n">
-        <v>43.9667627965911</v>
+        <v>43.92855664015034</v>
       </c>
       <c r="D50" t="n">
-        <v>0.2667627965910953</v>
+        <v>0.2285566401503374</v>
       </c>
       <c r="E50" t="n">
-        <v>0.07116238964510206</v>
+        <v>0.05223813775681082</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>44.2</v>
       </c>
       <c r="C51" t="n">
-        <v>43.48826428007315</v>
+        <v>44.19887121284617</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.7117357199268568</v>
+        <v>-0.001128787153831468</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5065677350198011</v>
+        <v>1.274160438654945e-06</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>0.9776296810985414</v>
+        <v>0.06733617323221353</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>5.340535819661321</v>
+        <v>4.010449973461252</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>0.1068107163932264</v>
+        <v>0.08020899946922504</v>
       </c>
     </row>
   </sheetData>
